--- a/star-quest/checklist.xlsx
+++ b/star-quest/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/star-quest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC2F59E6-EAA2-DE43-AEE1-0D3798096067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD88B9-7FE5-5045-AB1E-CB99BBD653E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{BB05E97B-0881-D544-BD5A-CADCD79E9CE9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -69,14 +69,28 @@
   </si>
   <si>
     <t>Star Quest: S.F Role-Play Game</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>box set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE226CC5-3AF3-6A4F-B791-AB8BD06D5D47}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,26 +446,30 @@
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="46.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1984</v>
       </c>
@@ -466,8 +485,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1985</v>
       </c>
@@ -482,6 +504,9 @@
       </c>
       <c r="E3" t="s">
         <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
